--- a/Team-Data/2007-08/12-20-2007-08.xlsx
+++ b/Team-Data/2007-08/12-20-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
         <v>15</v>
@@ -798,16 +865,16 @@
         <v>21</v>
       </c>
       <c r="AV2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW2" t="n">
         <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ2" t="n">
         <v>15</v>
@@ -816,7 +883,7 @@
         <v>9</v>
       </c>
       <c r="BB2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BC2" t="n">
         <v>16</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-20-2007-08</t>
+          <t>2007-12-20</t>
         </is>
       </c>
     </row>
@@ -938,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI3" t="n">
         <v>19</v>
@@ -953,7 +1020,7 @@
         <v>9</v>
       </c>
       <c r="AM3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN3" t="n">
         <v>3</v>
@@ -971,7 +1038,7 @@
         <v>29</v>
       </c>
       <c r="AS3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT3" t="n">
         <v>17</v>
@@ -989,7 +1056,7 @@
         <v>23</v>
       </c>
       <c r="AY3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ3" t="n">
         <v>12</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-20-2007-08</t>
+          <t>2007-12-20</t>
         </is>
       </c>
     </row>
@@ -1114,13 +1181,13 @@
         <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG4" t="n">
         <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI4" t="n">
         <v>28</v>
@@ -1129,7 +1196,7 @@
         <v>25</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
         <v>16</v>
@@ -1138,7 +1205,7 @@
         <v>16</v>
       </c>
       <c r="AN4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO4" t="n">
         <v>19</v>
@@ -1174,7 +1241,7 @@
         <v>27</v>
       </c>
       <c r="AZ4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA4" t="n">
         <v>16</v>
@@ -1183,7 +1250,7 @@
         <v>28</v>
       </c>
       <c r="BC4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-20-2007-08</t>
+          <t>2007-12-20</t>
         </is>
       </c>
     </row>
@@ -1296,16 +1363,16 @@
         <v>23</v>
       </c>
       <c r="AF5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
         <v>23</v>
       </c>
       <c r="AH5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ5" t="n">
         <v>5</v>
@@ -1350,7 +1417,7 @@
         <v>10</v>
       </c>
       <c r="AX5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY5" t="n">
         <v>28</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-20-2007-08</t>
+          <t>2007-12-20</t>
         </is>
       </c>
     </row>
@@ -1394,112 +1461,112 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" t="n">
         <v>15</v>
       </c>
       <c r="G6" t="n">
-        <v>0.444</v>
+        <v>0.423</v>
       </c>
       <c r="H6" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I6" t="n">
         <v>35.7</v>
       </c>
       <c r="J6" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="K6" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L6" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.361</v>
+        <v>0.363</v>
       </c>
       <c r="O6" t="n">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
       <c r="P6" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.723</v>
+        <v>0.721</v>
       </c>
       <c r="R6" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S6" t="n">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
       <c r="T6" t="n">
-        <v>42.9</v>
+        <v>42.6</v>
       </c>
       <c r="U6" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="V6" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W6" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X6" t="n">
         <v>4.7</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z6" t="n">
         <v>22.7</v>
       </c>
       <c r="AA6" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB6" t="n">
-        <v>96.40000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>-4.4</v>
+        <v>-4.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF6" t="n">
         <v>21</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH6" t="n">
         <v>1</v>
       </c>
       <c r="AI6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK6" t="n">
         <v>21</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>23</v>
       </c>
       <c r="AL6" t="n">
         <v>11</v>
       </c>
       <c r="AM6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN6" t="n">
         <v>9</v>
@@ -1508,34 +1575,34 @@
         <v>20</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ6" t="n">
         <v>24</v>
       </c>
       <c r="AR6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS6" t="n">
         <v>16</v>
       </c>
       <c r="AT6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU6" t="n">
         <v>27</v>
       </c>
       <c r="AV6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX6" t="n">
         <v>19</v>
       </c>
       <c r="AY6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ6" t="n">
         <v>24</v>
@@ -1547,7 +1614,7 @@
         <v>17</v>
       </c>
       <c r="BC6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-20-2007-08</t>
+          <t>2007-12-20</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1733,7 @@
         <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI7" t="n">
         <v>13</v>
@@ -1675,7 +1742,7 @@
         <v>23</v>
       </c>
       <c r="AK7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL7" t="n">
         <v>18</v>
@@ -1684,10 +1751,10 @@
         <v>17</v>
       </c>
       <c r="AN7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP7" t="n">
         <v>12</v>
@@ -1696,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="AR7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS7" t="n">
         <v>14</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-20-2007-08</t>
+          <t>2007-12-20</t>
         </is>
       </c>
     </row>
@@ -1758,67 +1825,67 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" t="n">
         <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6</v>
+        <v>0.583</v>
       </c>
       <c r="H8" t="n">
-        <v>48.4</v>
+        <v>48</v>
       </c>
       <c r="I8" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J8" t="n">
-        <v>84.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.456</v>
+        <v>0.461</v>
       </c>
       <c r="L8" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M8" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="N8" t="n">
-        <v>0.343</v>
+        <v>0.347</v>
       </c>
       <c r="O8" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="P8" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.745</v>
+        <v>0.746</v>
       </c>
       <c r="R8" t="n">
-        <v>11.3</v>
+        <v>10.7</v>
       </c>
       <c r="S8" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T8" t="n">
-        <v>44</v>
+        <v>43.2</v>
       </c>
       <c r="U8" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="V8" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="W8" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="X8" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="Y8" t="n">
         <v>4.4</v>
@@ -1830,25 +1897,25 @@
         <v>24.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>106.5</v>
+        <v>106.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AE8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF8" t="n">
         <v>8</v>
       </c>
-      <c r="AF8" t="n">
-        <v>7</v>
-      </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
@@ -1857,19 +1924,19 @@
         <v>6</v>
       </c>
       <c r="AK8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL8" t="n">
         <v>12</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>13</v>
       </c>
       <c r="AM8" t="n">
         <v>12</v>
       </c>
       <c r="AN8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP8" t="n">
         <v>1</v>
@@ -1878,10 +1945,10 @@
         <v>19</v>
       </c>
       <c r="AR8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT8" t="n">
         <v>8</v>
@@ -1908,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="BB8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC8" t="n">
         <v>8</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-20-2007-08</t>
+          <t>2007-12-20</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2030,7 +2097,7 @@
         <v>2</v>
       </c>
       <c r="AH9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
         <v>10</v>
@@ -2078,7 +2145,7 @@
         <v>23</v>
       </c>
       <c r="AX9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY9" t="n">
         <v>1</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-20-2007-08</t>
+          <t>2007-12-20</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>1.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE10" t="n">
         <v>8</v>
@@ -2212,7 +2279,7 @@
         <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2230,13 +2297,13 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO10" t="n">
         <v>18</v>
       </c>
       <c r="AP10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ10" t="n">
         <v>22</v>
@@ -2245,7 +2312,7 @@
         <v>2</v>
       </c>
       <c r="AS10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-20-2007-08</t>
+          <t>2007-12-20</t>
         </is>
       </c>
     </row>
@@ -2304,118 +2371,118 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
         <v>12</v>
       </c>
       <c r="F11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" t="n">
-        <v>0.462</v>
+        <v>0.48</v>
       </c>
       <c r="H11" t="n">
-        <v>48.4</v>
+        <v>48</v>
       </c>
       <c r="I11" t="n">
-        <v>35.7</v>
+        <v>35.5</v>
       </c>
       <c r="J11" t="n">
-        <v>82.09999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="K11" t="n">
-        <v>0.435</v>
+        <v>0.437</v>
       </c>
       <c r="L11" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="M11" t="n">
-        <v>19.8</v>
+        <v>19.2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.325</v>
+        <v>0.323</v>
       </c>
       <c r="O11" t="n">
         <v>16.6</v>
       </c>
       <c r="P11" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.718</v>
+        <v>0.72</v>
       </c>
       <c r="R11" t="n">
         <v>12.7</v>
       </c>
       <c r="S11" t="n">
-        <v>32</v>
+        <v>31.5</v>
       </c>
       <c r="T11" t="n">
-        <v>44.7</v>
+        <v>44.2</v>
       </c>
       <c r="U11" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="V11" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="W11" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X11" t="n">
         <v>5.3</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB11" t="n">
-        <v>94.40000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="AC11" t="n">
         <v>0.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE11" t="n">
         <v>17</v>
       </c>
       <c r="AF11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG11" t="n">
         <v>17</v>
       </c>
       <c r="AH11" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AK11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AM11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN11" t="n">
         <v>27</v>
       </c>
       <c r="AO11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP11" t="n">
         <v>24</v>
@@ -2427,34 +2494,34 @@
         <v>4</v>
       </c>
       <c r="AS11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT11" t="n">
         <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV11" t="n">
         <v>9</v>
       </c>
       <c r="AW11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX11" t="n">
         <v>8</v>
       </c>
       <c r="AY11" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AZ11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA11" t="n">
         <v>24</v>
       </c>
       <c r="BB11" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BC11" t="n">
         <v>15</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-20-2007-08</t>
+          <t>2007-12-20</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2631,10 @@
         <v>0.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF12" t="n">
         <v>12</v>
@@ -2576,7 +2643,7 @@
         <v>13</v>
       </c>
       <c r="AH12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
         <v>4</v>
@@ -2615,13 +2682,13 @@
         <v>2</v>
       </c>
       <c r="AU12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV12" t="n">
         <v>21</v>
       </c>
       <c r="AW12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AX12" t="n">
         <v>3</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-20-2007-08</t>
+          <t>2007-12-20</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-4.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE13" t="n">
         <v>23</v>
@@ -2758,7 +2825,7 @@
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
@@ -2770,13 +2837,13 @@
         <v>29</v>
       </c>
       <c r="AL13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM13" t="n">
         <v>25</v>
       </c>
       <c r="AN13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO13" t="n">
         <v>6</v>
@@ -2794,7 +2861,7 @@
         <v>5</v>
       </c>
       <c r="AT13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU13" t="n">
         <v>17</v>
@@ -2821,7 +2888,7 @@
         <v>25</v>
       </c>
       <c r="BC13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-20-2007-08</t>
+          <t>2007-12-20</t>
         </is>
       </c>
     </row>
@@ -2850,46 +2917,46 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J14" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.468</v>
+        <v>0.469</v>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="M14" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="N14" t="n">
-        <v>0.351</v>
+        <v>0.357</v>
       </c>
       <c r="O14" t="n">
-        <v>22.6</v>
+        <v>22.9</v>
       </c>
       <c r="P14" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.767</v>
+        <v>0.77</v>
       </c>
       <c r="R14" t="n">
         <v>11.1</v>
@@ -2901,19 +2968,19 @@
         <v>45.2</v>
       </c>
       <c r="U14" t="n">
-        <v>23.4</v>
+        <v>23.7</v>
       </c>
       <c r="V14" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="W14" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y14" t="n">
         <v>4.9</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>4.8</v>
       </c>
       <c r="Z14" t="n">
         <v>22</v>
@@ -2922,34 +2989,34 @@
         <v>23.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.3</v>
+        <v>107</v>
       </c>
       <c r="AC14" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AE14" t="n">
         <v>8</v>
       </c>
       <c r="AF14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG14" t="n">
         <v>7</v>
       </c>
-      <c r="AG14" t="n">
-        <v>8</v>
-      </c>
       <c r="AH14" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
         <v>6</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL14" t="n">
         <v>10</v>
@@ -2958,19 +3025,19 @@
         <v>7</v>
       </c>
       <c r="AN14" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AO14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AR14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS14" t="n">
         <v>2</v>
@@ -2979,10 +3046,10 @@
         <v>1</v>
       </c>
       <c r="AU14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AW14" t="n">
         <v>5</v>
@@ -2997,10 +3064,10 @@
         <v>21</v>
       </c>
       <c r="BA14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-20-2007-08</t>
+          <t>2007-12-20</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3122,7 +3189,7 @@
         <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI15" t="n">
         <v>7</v>
@@ -3149,13 +3216,13 @@
         <v>14</v>
       </c>
       <c r="AQ15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR15" t="n">
         <v>26</v>
       </c>
       <c r="AS15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT15" t="n">
         <v>20</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-20-2007-08</t>
+          <t>2007-12-20</t>
         </is>
       </c>
     </row>
@@ -3214,85 +3281,85 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G16" t="n">
-        <v>0.269</v>
+        <v>0.28</v>
       </c>
       <c r="H16" t="n">
-        <v>48.4</v>
+        <v>48.2</v>
       </c>
       <c r="I16" t="n">
-        <v>35.3</v>
+        <v>35.1</v>
       </c>
       <c r="J16" t="n">
-        <v>76.8</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="K16" t="n">
         <v>0.46</v>
       </c>
       <c r="L16" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="M16" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="N16" t="n">
-        <v>0.341</v>
+        <v>0.345</v>
       </c>
       <c r="O16" t="n">
         <v>19.2</v>
       </c>
       <c r="P16" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.704</v>
+        <v>0.705</v>
       </c>
       <c r="R16" t="n">
-        <v>9.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S16" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T16" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="U16" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V16" t="n">
         <v>15.2</v>
       </c>
       <c r="W16" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="X16" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="Y16" t="n">
         <v>3.6</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA16" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AB16" t="n">
-        <v>94.5</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC16" t="n">
         <v>-4.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE16" t="n">
         <v>28</v>
@@ -3304,16 +3371,16 @@
         <v>28</v>
       </c>
       <c r="AH16" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AI16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ16" t="n">
         <v>28</v>
       </c>
       <c r="AK16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL16" t="n">
         <v>26</v>
@@ -3322,7 +3389,7 @@
         <v>26</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
         <v>15</v>
@@ -3334,10 +3401,10 @@
         <v>29</v>
       </c>
       <c r="AR16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT16" t="n">
         <v>28</v>
@@ -3349,22 +3416,22 @@
         <v>12</v>
       </c>
       <c r="AW16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AX16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY16" t="n">
         <v>2</v>
       </c>
       <c r="AZ16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA16" t="n">
         <v>10</v>
       </c>
       <c r="BB16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BC16" t="n">
         <v>22</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-20-2007-08</t>
+          <t>2007-12-20</t>
         </is>
       </c>
     </row>
@@ -3474,16 +3541,16 @@
         <v>-4.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF17" t="n">
         <v>21</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH17" t="n">
         <v>2</v>
@@ -3516,7 +3583,7 @@
         <v>20</v>
       </c>
       <c r="AR17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS17" t="n">
         <v>23</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-20-2007-08</t>
+          <t>2007-12-20</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3668,7 +3735,7 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI18" t="n">
         <v>16</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-20-2007-08</t>
+          <t>2007-12-20</t>
         </is>
       </c>
     </row>
@@ -3760,55 +3827,55 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
         <v>15</v>
       </c>
       <c r="G19" t="n">
-        <v>0.423</v>
+        <v>0.4</v>
       </c>
       <c r="H19" t="n">
-        <v>48.6</v>
+        <v>48.4</v>
       </c>
       <c r="I19" t="n">
-        <v>32.7</v>
+        <v>32.4</v>
       </c>
       <c r="J19" t="n">
-        <v>75.8</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.431</v>
+        <v>0.429</v>
       </c>
       <c r="L19" t="n">
         <v>5.4</v>
       </c>
       <c r="M19" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="N19" t="n">
-        <v>0.315</v>
+        <v>0.314</v>
       </c>
       <c r="O19" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="P19" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.74</v>
+        <v>0.739</v>
       </c>
       <c r="R19" t="n">
-        <v>11</v>
+        <v>10.6</v>
       </c>
       <c r="S19" t="n">
         <v>30.1</v>
       </c>
       <c r="T19" t="n">
-        <v>41.1</v>
+        <v>40.7</v>
       </c>
       <c r="U19" t="n">
         <v>22.4</v>
@@ -3817,31 +3884,31 @@
         <v>16.2</v>
       </c>
       <c r="W19" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X19" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Z19" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="AA19" t="n">
         <v>23.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>91.59999999999999</v>
+        <v>91</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5.4</v>
+        <v>-5.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF19" t="n">
         <v>21</v>
@@ -3850,7 +3917,7 @@
         <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3862,7 +3929,7 @@
         <v>28</v>
       </c>
       <c r="AL19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM19" t="n">
         <v>15</v>
@@ -3880,40 +3947,40 @@
         <v>21</v>
       </c>
       <c r="AR19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS19" t="n">
         <v>20</v>
       </c>
       <c r="AT19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU19" t="n">
         <v>11</v>
       </c>
       <c r="AV19" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AW19" t="n">
         <v>22</v>
       </c>
       <c r="AX19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY19" t="n">
         <v>6</v>
       </c>
       <c r="AZ19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB19" t="n">
         <v>30</v>
       </c>
       <c r="BC19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-20-2007-08</t>
+          <t>2007-12-20</t>
         </is>
       </c>
     </row>
@@ -4020,16 +4087,16 @@
         <v>1.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE20" t="n">
         <v>7</v>
       </c>
       <c r="AF20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH20" t="n">
         <v>4</v>
@@ -4041,7 +4108,7 @@
         <v>9</v>
       </c>
       <c r="AK20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL20" t="n">
         <v>8</v>
@@ -4083,7 +4150,7 @@
         <v>27</v>
       </c>
       <c r="AY20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ20" t="n">
         <v>5</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-20-2007-08</t>
+          <t>2007-12-20</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-7.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4214,7 +4281,7 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI21" t="n">
         <v>26</v>
@@ -4274,7 +4341,7 @@
         <v>13</v>
       </c>
       <c r="BB21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BC21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-20-2007-08</t>
+          <t>2007-12-20</t>
         </is>
       </c>
     </row>
@@ -4396,7 +4463,7 @@
         <v>5</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AI22" t="n">
         <v>14</v>
@@ -4414,19 +4481,19 @@
         <v>2</v>
       </c>
       <c r="AN22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO22" t="n">
         <v>8</v>
       </c>
       <c r="AP22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ22" t="n">
         <v>27</v>
       </c>
       <c r="AR22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS22" t="n">
         <v>1</v>
@@ -4447,7 +4514,7 @@
         <v>21</v>
       </c>
       <c r="AY22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ22" t="n">
         <v>14</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-20-2007-08</t>
+          <t>2007-12-20</t>
         </is>
       </c>
     </row>
@@ -4566,19 +4633,19 @@
         <v>-1.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF23" t="n">
         <v>21</v>
       </c>
       <c r="AG23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>22</v>
@@ -4614,10 +4681,10 @@
         <v>21</v>
       </c>
       <c r="AT23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV23" t="n">
         <v>26</v>
@@ -4629,10 +4696,10 @@
         <v>7</v>
       </c>
       <c r="AY23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA23" t="n">
         <v>23</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-20-2007-08</t>
+          <t>2007-12-20</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>4.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
         <v>2</v>
@@ -4760,7 +4827,7 @@
         <v>4</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-20-2007-08</t>
+          <t>2007-12-20</t>
         </is>
       </c>
     </row>
@@ -4930,10 +4997,10 @@
         <v>-1.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF25" t="n">
         <v>12</v>
@@ -4942,7 +5009,7 @@
         <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI25" t="n">
         <v>18</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-20-2007-08</t>
+          <t>2007-12-20</t>
         </is>
       </c>
     </row>
@@ -5112,19 +5179,19 @@
         <v>-2.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI26" t="n">
         <v>23</v>
@@ -5166,7 +5233,7 @@
         <v>29</v>
       </c>
       <c r="AV26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW26" t="n">
         <v>8</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-20-2007-08</t>
+          <t>2007-12-20</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>6.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE27" t="n">
         <v>2</v>
@@ -5306,7 +5373,7 @@
         <v>2</v>
       </c>
       <c r="AH27" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI27" t="n">
         <v>8</v>
@@ -5333,7 +5400,7 @@
         <v>26</v>
       </c>
       <c r="AQ27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR27" t="n">
         <v>25</v>
@@ -5342,7 +5409,7 @@
         <v>13</v>
       </c>
       <c r="AT27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-20-2007-08</t>
+          <t>2007-12-20</t>
         </is>
       </c>
     </row>
@@ -5476,19 +5543,19 @@
         <v>-7.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE28" t="n">
         <v>28</v>
       </c>
       <c r="AF28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI28" t="n">
         <v>11</v>
@@ -5497,7 +5564,7 @@
         <v>4</v>
       </c>
       <c r="AK28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL28" t="n">
         <v>27</v>
@@ -5506,7 +5573,7 @@
         <v>28</v>
       </c>
       <c r="AN28" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO28" t="n">
         <v>13</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-20-2007-08</t>
+          <t>2007-12-20</t>
         </is>
       </c>
     </row>
@@ -5670,7 +5737,7 @@
         <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI29" t="n">
         <v>12</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-20-2007-08</t>
+          <t>2007-12-20</t>
         </is>
       </c>
     </row>
@@ -5843,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF30" t="n">
         <v>16</v>
@@ -5852,13 +5919,13 @@
         <v>16</v>
       </c>
       <c r="AH30" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI30" t="n">
         <v>3</v>
       </c>
       <c r="AJ30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK30" t="n">
         <v>2</v>
@@ -5894,7 +5961,7 @@
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-20-2007-08</t>
+          <t>2007-12-20</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>1.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
@@ -6034,25 +6101,25 @@
         <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI31" t="n">
         <v>9</v>
       </c>
       <c r="AJ31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK31" t="n">
         <v>17</v>
       </c>
       <c r="AL31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM31" t="n">
         <v>13</v>
       </c>
       <c r="AN31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO31" t="n">
         <v>12</v>
@@ -6079,7 +6146,7 @@
         <v>8</v>
       </c>
       <c r="AW31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX31" t="n">
         <v>9</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-20-2007-08</t>
+          <t>2007-12-20</t>
         </is>
       </c>
     </row>
